--- a/Data sheet.xlsx
+++ b/Data sheet.xlsx
@@ -248,7 +248,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
@@ -303,7 +303,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
@@ -358,7 +358,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
@@ -411,7 +411,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
@@ -470,7 +470,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
@@ -485,11 +485,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1886366273"/>
-        <c:axId val="1240077186"/>
+        <c:axId val="365160767"/>
+        <c:axId val="673578854"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1886366273"/>
+        <c:axId val="365160767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -541,10 +541,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1240077186"/>
+        <c:crossAx val="673578854"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1240077186"/>
+        <c:axId val="673578854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,17 +559,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -591,7 +580,7 @@
                     </a:solidFill>
                     <a:latin typeface="Georgia"/>
                   </a:rPr>
-                  <a:t>Delta R/R_0 (%)</a:t>
+                  <a:t>Δ R/R0 (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -619,7 +608,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886366273"/>
+        <c:crossAx val="365160767"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -702,11 +691,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="730210189"/>
-        <c:axId val="372252153"/>
+        <c:axId val="1303560880"/>
+        <c:axId val="1391246787"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="730210189"/>
+        <c:axId val="1303560880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,10 +747,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372252153"/>
+        <c:crossAx val="1391246787"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="372252153"/>
+        <c:axId val="1391246787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +814,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="730210189"/>
+        <c:crossAx val="1303560880"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -908,11 +897,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1611610292"/>
-        <c:axId val="831019750"/>
+        <c:axId val="1058601776"/>
+        <c:axId val="1972585898"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1611610292"/>
+        <c:axId val="1058601776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,10 +953,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831019750"/>
+        <c:crossAx val="1972585898"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831019750"/>
+        <c:axId val="1972585898"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1020,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1611610292"/>
+        <c:crossAx val="1058601776"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1114,11 +1103,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="643282573"/>
-        <c:axId val="1132043142"/>
+        <c:axId val="285940685"/>
+        <c:axId val="316203093"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="643282573"/>
+        <c:axId val="285940685"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,10 +1159,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1132043142"/>
+        <c:crossAx val="316203093"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1132043142"/>
+        <c:axId val="316203093"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1226,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643282573"/>
+        <c:crossAx val="285940685"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1307,7 +1296,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
@@ -1360,7 +1349,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
@@ -1415,7 +1404,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
@@ -1468,7 +1457,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
@@ -1527,7 +1516,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
@@ -1542,11 +1531,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="839780168"/>
-        <c:axId val="24752586"/>
+        <c:axId val="779834697"/>
+        <c:axId val="1537370544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="839780168"/>
+        <c:axId val="779834697"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,10 +1587,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24752586"/>
+        <c:crossAx val="1537370544"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24752586"/>
+        <c:axId val="1537370544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,17 +1605,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1648,7 +1626,7 @@
                     </a:solidFill>
                     <a:latin typeface="Georgia"/>
                   </a:rPr>
-                  <a:t>Delta R/R_0 (%)</a:t>
+                  <a:t>Δ R/R0 (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1676,7 +1654,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839780168"/>
+        <c:crossAx val="779834697"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1759,11 +1737,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1882168739"/>
-        <c:axId val="947998827"/>
+        <c:axId val="689225578"/>
+        <c:axId val="1281906992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1882168739"/>
+        <c:axId val="689225578"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1815,10 +1793,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="947998827"/>
+        <c:crossAx val="1281906992"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="947998827"/>
+        <c:axId val="1281906992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1860,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1882168739"/>
+        <c:crossAx val="689225578"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1965,11 +1943,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="192532688"/>
-        <c:axId val="775956270"/>
+        <c:axId val="1710344965"/>
+        <c:axId val="1257272236"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192532688"/>
+        <c:axId val="1710344965"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2021,10 +1999,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="775956270"/>
+        <c:crossAx val="1257272236"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="775956270"/>
+        <c:axId val="1257272236"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,7 +2066,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192532688"/>
+        <c:crossAx val="1710344965"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2171,11 +2149,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="815953803"/>
-        <c:axId val="2060435983"/>
+        <c:axId val="1435968792"/>
+        <c:axId val="2065997134"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="815953803"/>
+        <c:axId val="1435968792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,10 +2205,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2060435983"/>
+        <c:crossAx val="2065997134"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2060435983"/>
+        <c:axId val="2065997134"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,7 +2272,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="815953803"/>
+        <c:crossAx val="1435968792"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2377,11 +2355,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1377653152"/>
-        <c:axId val="1403867493"/>
+        <c:axId val="1645390602"/>
+        <c:axId val="1836483308"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1377653152"/>
+        <c:axId val="1645390602"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,10 +2411,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1403867493"/>
+        <c:crossAx val="1836483308"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1403867493"/>
+        <c:axId val="1836483308"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,7 +2478,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1377653152"/>
+        <c:crossAx val="1645390602"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2583,11 +2561,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="607457520"/>
-        <c:axId val="738621711"/>
+        <c:axId val="293679532"/>
+        <c:axId val="1308683376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="607457520"/>
+        <c:axId val="293679532"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2639,10 +2617,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="738621711"/>
+        <c:crossAx val="1308683376"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="738621711"/>
+        <c:axId val="1308683376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2706,7 +2684,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607457520"/>
+        <c:crossAx val="293679532"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2789,11 +2767,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2089956909"/>
-        <c:axId val="122257477"/>
+        <c:axId val="1304594555"/>
+        <c:axId val="1015786288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2089956909"/>
+        <c:axId val="1304594555"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,10 +2823,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122257477"/>
+        <c:crossAx val="1015786288"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122257477"/>
+        <c:axId val="1015786288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2912,7 +2890,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089956909"/>
+        <c:crossAx val="1304594555"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2995,11 +2973,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1001554917"/>
-        <c:axId val="852685513"/>
+        <c:axId val="1559399771"/>
+        <c:axId val="241892510"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1001554917"/>
+        <c:axId val="1559399771"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,10 +3029,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="852685513"/>
+        <c:crossAx val="241892510"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="852685513"/>
+        <c:axId val="241892510"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3118,7 +3096,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1001554917"/>
+        <c:crossAx val="1559399771"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
